--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinesh\Documents\EDUCATION\Advanced-NLP-Generative-AI-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F424B-8735-4F6D-9A3A-488A977DAE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F53E6-AE5F-46DF-BA0F-40E3967AF539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Session 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>History of AI and Gen AI</t>
   </si>
@@ -124,6 +125,129 @@
   </si>
   <si>
     <t>Core Concept for LLM application</t>
+  </si>
+  <si>
+    <t>Unimodel</t>
+  </si>
+  <si>
+    <t>NLP Usecases</t>
+  </si>
+  <si>
+    <t>1. Summarization</t>
+  </si>
+  <si>
+    <t>3. Translation</t>
+  </si>
+  <si>
+    <t>4. Generation</t>
+  </si>
+  <si>
+    <t>2. Classification</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>GRU</t>
+  </si>
+  <si>
+    <t>Classical NLP Model/ Language Modelling(LM)</t>
+  </si>
+  <si>
+    <t>LM works with limited data whereas LLM can work on large data</t>
+  </si>
+  <si>
+    <t>LM uses RNN, LSTM models for solving any use cases whereas LLM uses transformer architecture</t>
+  </si>
+  <si>
+    <t>1. Text preprocessing</t>
+  </si>
+  <si>
+    <t>2. Text Encoding - Frequency based method</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Text Embedding - use neural network to create vectors</t>
+  </si>
+  <si>
+    <t>a. word embedding</t>
+  </si>
+  <si>
+    <t>b. Sentence Embedding</t>
+  </si>
+  <si>
+    <t>Validation of Embedding</t>
+  </si>
+  <si>
+    <t>3. Seq to Seq architecture</t>
+  </si>
+  <si>
+    <t>a. one to one</t>
+  </si>
+  <si>
+    <t>b. Many to one</t>
+  </si>
+  <si>
+    <t>c. Many to Many</t>
+  </si>
+  <si>
+    <t>4. RNN, LSTM, Encoding &amp; Decoding with attention</t>
+  </si>
+  <si>
+    <t>5. Transformer</t>
+  </si>
+  <si>
+    <t>6. Transformer Based Architechture</t>
+  </si>
+  <si>
+    <t>a. BERT</t>
+  </si>
+  <si>
+    <t>b. GPT</t>
+  </si>
+  <si>
+    <t>C. LLAMA</t>
+  </si>
+  <si>
+    <t>D. MISTRAL</t>
+  </si>
+  <si>
+    <t>Learning Agenda in upcoming sessions</t>
+  </si>
+  <si>
+    <t>7. Hugging Face API</t>
+  </si>
+  <si>
+    <t>8. OPEN AI and Claude API</t>
+  </si>
+  <si>
+    <t>Refer Generative_AI_Introduction_Latest pdf file</t>
+  </si>
+  <si>
+    <t>Prompt Types</t>
+  </si>
+  <si>
+    <t>1. Zero shot Prompt</t>
+  </si>
+  <si>
+    <t>2. Few Shot Promt</t>
+  </si>
+  <si>
+    <t>3. Chain of Thoughts</t>
+  </si>
+  <si>
+    <t>LLM have reasoning capability whereas LM model doesn't have reasoning capability it answer based on trained data</t>
+  </si>
+  <si>
+    <t>How LLM is Trained</t>
+  </si>
+  <si>
+    <t>RHLF -Reinforcement Learning through Human Feedback</t>
   </si>
 </sst>
 </file>
@@ -806,6 +930,275 @@
         <a:xfrm>
           <a:off x="76200" y="35794950"/>
           <a:ext cx="5039428" cy="2981741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05343AE6-45E7-FF55-CBFF-8DD0AFA10E5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="6201640" cy="3105583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552953</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>143081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5012580-1E41-3B02-EE4F-7194EF99EAE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4381500"/>
+          <a:ext cx="3600953" cy="1476581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>891</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152704</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61E886D-25FB-C21A-F5C5-6D14B3E32F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="6162675"/>
+          <a:ext cx="6382641" cy="2181529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>134219</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD4AD3F-2088-45CD-B4C5-52523D3CDDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9715500"/>
+          <a:ext cx="6230219" cy="2781688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>57344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F2E99A-DC0B-40C1-3821-2036603437CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20955000"/>
+          <a:ext cx="5706271" cy="1390844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>515188</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA01881C-4B07-D2FF-C97F-A1CA3E4533A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="20955000"/>
+          <a:ext cx="6001588" cy="3010320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1082,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="J174" sqref="J174"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1255,4 +1648,225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE3E6D6-FE45-49F5-ABCF-896DD20DE4AA}">
+  <dimension ref="A22:A119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I124" sqref="I124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinesh\Documents\EDUCATION\Advanced-NLP-Generative-AI-Bootcamp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5F53E6-AE5F-46DF-BA0F-40E3967AF539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1738D14C-1239-419C-B234-B9B5E914D2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Session 1" sheetId="1" r:id="rId1"/>
     <sheet name="Session 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Session 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>History of AI and Gen AI</t>
   </si>
@@ -248,6 +249,63 @@
   </si>
   <si>
     <t>RHLF -Reinforcement Learning through Human Feedback</t>
+  </si>
+  <si>
+    <t>System Setup for Project</t>
+  </si>
+  <si>
+    <t>Note - Select cmd instead of powershell in terminal</t>
+  </si>
+  <si>
+    <t>Active Python Base environmnet in Anaconda</t>
+  </si>
+  <si>
+    <t>Note -If Anaconda base env is not activated it will work with locally downloaded python interpretor</t>
+  </si>
+  <si>
+    <t>Steps for creating Virtual Environment in Anaconda</t>
+  </si>
+  <si>
+    <t>Note - Conda create -p   --&gt; present dictory</t>
+  </si>
+  <si>
+    <t>Conda create -n  --&gt; default directory</t>
+  </si>
+  <si>
+    <t>conda env list</t>
+  </si>
+  <si>
+    <t># or</t>
+  </si>
+  <si>
+    <t>conda info --envs</t>
+  </si>
+  <si>
+    <t>Enviroment list in Anaconda</t>
+  </si>
+  <si>
+    <t>Environment  Path for Anaconda</t>
+  </si>
+  <si>
+    <t>C:\Users\Rinesh\anaconda3\Library\bin</t>
+  </si>
+  <si>
+    <t>C:\Users\Rinesh\anaconda3\Scripts</t>
+  </si>
+  <si>
+    <t>C:\Users\Rinesh\anaconda3</t>
+  </si>
+  <si>
+    <t>Setup</t>
+  </si>
+  <si>
+    <t>Text Preprocessing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the advanced LLM handles data cleaning but we might need to perform text preprocessing if we have very messy data </t>
+  </si>
+  <si>
+    <t>Text Preprocessing is always required for classical Language Models like Naïve Bayes, RNN etc.</t>
   </si>
 </sst>
 </file>
@@ -1199,6 +1257,451 @@
         <a:xfrm>
           <a:off x="6705600" y="20955000"/>
           <a:ext cx="6001588" cy="3010320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400446</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490D043F-8931-3E3A-9D73-F8382A6741C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="571500"/>
+          <a:ext cx="2838846" cy="390580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>448758</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C22F236-1550-5AA5-D564-2FE10458A237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4248150"/>
+          <a:ext cx="7763958" cy="695422"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACD1EE4-80A3-DAC0-77D8-4F12F25685B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="1466850"/>
+          <a:ext cx="3772426" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229398</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{087236F7-A07E-335F-691F-E54CF3412632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5600700"/>
+          <a:ext cx="5715798" cy="1867161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372378</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>105375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D928D392-245E-0E01-4947-1693609B47AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7886700"/>
+          <a:ext cx="6468378" cy="4296375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353325</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>29191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE352A1-CA9A-2B35-25CD-5D0C27A8E83C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12458700"/>
+          <a:ext cx="6449325" cy="4410691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>143831</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>124534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33FA9355-93E6-F5A5-E9A7-1F51554B3021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="9029700"/>
+          <a:ext cx="6849431" cy="5077534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>143721</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>48151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88810C8F-4D83-4DDE-0FEA-96A7B4666613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="17687925"/>
+          <a:ext cx="6058746" cy="3772426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>382244</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>38743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7535A32A-7AA8-98DD-3827-C108217DB843}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21983700"/>
+          <a:ext cx="8916644" cy="4610743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>486013</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>9739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AA93DD-4145-B6B3-745E-39C92179A934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="27508200"/>
+          <a:ext cx="1705213" cy="1533739"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1475,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:D187"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
+    <sheetView topLeftCell="A190" workbookViewId="0">
       <selection activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
@@ -1654,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE3E6D6-FE45-49F5-ABCF-896DD20DE4AA}">
   <dimension ref="A22:A119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1869,4 +2372,115 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD26CC8-A038-4AED-B0D8-08865F671950}">
+  <dimension ref="A1:O155"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="O45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N103" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>